--- a/3-descriptive-statistics/3-descriptive-statistics-solution.xlsx
+++ b/3-descriptive-statistics/3-descriptive-statistics-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\3-descriptive-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD9641B-5AB3-46D5-AE6D-8CAC5497A9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525FCBD-05EC-4BCD-91E4-AB5A44048463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
@@ -61,9 +68,12 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -72,7 +82,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -89,6 +99,9 @@
   <pythonScripts>
     <pythonScript>
       <code>mpg_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>mpg_df.describe(percentiles=[.1, .5, .9])</code>
     </pythonScript>
     <pythonScript>
       <code>mpg_df['origin'].value_counts()</code>
@@ -715,7 +728,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
   <a r="12" c="9">
     <v t="s"/>
     <v t="s">mpg</v>
@@ -826,11 +839,85 @@
     <v>82</v>
     <v t="s">usa</v>
   </a>
+  <a r="9" c="8">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">count</v>
+    <v>398</v>
+    <v>398</v>
+    <v>398</v>
+    <v>392</v>
+    <v>398</v>
+    <v>398</v>
+    <v>398</v>
+    <v t="s">mean</v>
+    <v>23.514572864321607</v>
+    <v>5.4547738693467336</v>
+    <v>193.42587939698493</v>
+    <v>104.46938775510205</v>
+    <v>2970.424623115578</v>
+    <v>15.568090452261307</v>
+    <v>76.010050251256288</v>
+    <v t="s">std</v>
+    <v>7.8159843125657824</v>
+    <v>1.7010042445332094</v>
+    <v>104.26983817119581</v>
+    <v>38.491159932828552</v>
+    <v>846.84177419732714</v>
+    <v>2.7576889298126757</v>
+    <v>3.6976266467326231</v>
+    <v t="s">min</v>
+    <v>9</v>
+    <v>3</v>
+    <v>68</v>
+    <v>46</v>
+    <v>1613</v>
+    <v>8</v>
+    <v>70</v>
+    <v t="s">10%</v>
+    <v>14</v>
+    <v>4</v>
+    <v>90</v>
+    <v>67</v>
+    <v>1988.5</v>
+    <v>12</v>
+    <v>71</v>
+    <v t="s">50%</v>
+    <v>23</v>
+    <v>4</v>
+    <v>148.5</v>
+    <v>93.5</v>
+    <v>2803.5</v>
+    <v>15.5</v>
+    <v>76</v>
+    <v t="s">90%</v>
+    <v>34.33</v>
+    <v>8</v>
+    <v>350</v>
+    <v>157.7000000000001</v>
+    <v>4275.2</v>
+    <v>19</v>
+    <v>81</v>
+    <v t="s">max</v>
+    <v>46.6</v>
+    <v>8</v>
+    <v>455</v>
+    <v>230</v>
+    <v>5140</v>
+    <v>24.8</v>
+    <v>82</v>
+  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -847,6 +934,24 @@
 1    15.0          8         350.0       165.0    3693          11.5   
 2    18.0          8         318.0  ...</v>
     <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">              mpg   cylinders  displacement  horsepower       weight  \
+count  398.000000  398.000000    398.000000  392.000000   398.000000   
+mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
+std      7.815984    1.701004    104...</v>
+    <v>4</v>
     <v>2</v>
   </rv>
 </rvData>
@@ -874,7 +979,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="3">
+  <spbData count="5">
     <spb s="0">
       <v>398</v>
       <v>8</v>
@@ -889,6 +994,16 @@
       <v>https://www.anaconda.com/excel</v>
       <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
       <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>7</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1251,19 +1366,19 @@
   <dimension ref="A1:K399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="2" max="2" width="9.03515625" customWidth="1"/>
-    <col min="3" max="3" width="12.73828125" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.04296875" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.76953125" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1319,7 +1434,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1345,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1370,15 +1485,12 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="str" cm="1">
-        <f t="array" ref="J4:K7">_xlfn._xlws.PY(1,0)</f>
-        <v>origin</v>
-      </c>
-      <c r="K4" t="str">
-        <v>count</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J4" t="e" cm="1" vm="2">
+        <f t="array" ref="J4">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1403,14 +1515,8 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="str">
-        <v>usa</v>
-      </c>
-      <c r="K5">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1435,14 +1541,8 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="str">
-        <v>japan</v>
-      </c>
-      <c r="K6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1467,14 +1567,8 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="str">
-        <v>europe</v>
-      </c>
-      <c r="K7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1500,7 +1594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1526,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1552,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1578,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1604,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1630,7 +1724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1656,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1682,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1708,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1734,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1759,8 +1853,15 @@
       <c r="H18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J18" t="str" cm="1">
+        <f t="array" ref="J18:K21">_xlfn._xlws.PY(2,0)</f>
+        <v>origin</v>
+      </c>
+      <c r="K18" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1785,8 +1886,14 @@
       <c r="H19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J19" t="str">
+        <v>usa</v>
+      </c>
+      <c r="K19">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1811,8 +1918,14 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J20" t="str">
+        <v>japan</v>
+      </c>
+      <c r="K20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1837,8 +1950,14 @@
       <c r="H21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J21" t="str">
+        <v>europe</v>
+      </c>
+      <c r="K21">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1864,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1890,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1916,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1942,7 +2061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1968,7 +2087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1994,7 +2113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2020,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2046,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2072,7 +2191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2098,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2124,7 +2243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2150,7 +2269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2173,7 +2292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2199,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2225,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2251,7 +2370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2277,7 +2396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2303,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2329,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2355,7 +2474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2381,7 +2500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2407,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2433,7 +2552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2459,7 +2578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2485,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2511,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2537,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2563,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2589,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2615,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2641,7 +2760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2667,7 +2786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2693,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2719,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2745,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2771,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2797,7 +2916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2823,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A60">
         <v>25</v>
       </c>
@@ -2849,7 +2968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A61">
         <v>23</v>
       </c>
@@ -2875,7 +2994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A62">
         <v>20</v>
       </c>
@@ -2901,7 +3020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A63">
         <v>21</v>
       </c>
@@ -2927,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2953,7 +3072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2979,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3005,7 +3124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3031,7 +3150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3057,7 +3176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3083,7 +3202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3109,7 +3228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3135,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3161,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3187,7 +3306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3213,7 +3332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3239,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3265,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3291,7 +3410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3317,7 +3436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3343,7 +3462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3369,7 +3488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3395,7 +3514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3421,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3447,7 +3566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3473,7 +3592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3499,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3525,7 +3644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3551,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3577,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3603,7 +3722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3629,7 +3748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3655,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3681,7 +3800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3707,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3733,7 +3852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3759,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A96">
         <v>13</v>
       </c>
@@ -3785,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A97">
         <v>12</v>
       </c>
@@ -3811,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A98">
         <v>13</v>
       </c>
@@ -3837,7 +3956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A99">
         <v>18</v>
       </c>
@@ -3863,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A100">
         <v>16</v>
       </c>
@@ -3889,7 +4008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A101">
         <v>18</v>
       </c>
@@ -3915,7 +4034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A102">
         <v>18</v>
       </c>
@@ -3941,7 +4060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A103">
         <v>23</v>
       </c>
@@ -3967,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A104">
         <v>26</v>
       </c>
@@ -3993,7 +4112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4019,7 +4138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4045,7 +4164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4071,7 +4190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4097,7 +4216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4123,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4149,7 +4268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4175,7 +4294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4201,7 +4320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4227,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4253,7 +4372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4279,7 +4398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4305,7 +4424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4331,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4357,7 +4476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4383,7 +4502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4409,7 +4528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4435,7 +4554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4461,7 +4580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4487,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4513,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4539,7 +4658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4565,7 +4684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4591,7 +4710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4614,7 +4733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4640,7 +4759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4666,7 +4785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4692,7 +4811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4718,7 +4837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4744,7 +4863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4770,7 +4889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A135">
         <v>16</v>
       </c>
@@ -4796,7 +4915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A136">
         <v>16</v>
       </c>
@@ -4822,7 +4941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A137">
         <v>18</v>
       </c>
@@ -4848,7 +4967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A138">
         <v>16</v>
       </c>
@@ -4874,7 +4993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A139">
         <v>13</v>
       </c>
@@ -4900,7 +5019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4926,7 +5045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4952,7 +5071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4978,7 +5097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5004,7 +5123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5030,7 +5149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5056,7 +5175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5082,7 +5201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5108,7 +5227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5134,7 +5253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5160,7 +5279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5186,7 +5305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5212,7 +5331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5238,7 +5357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5264,7 +5383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5290,7 +5409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5316,7 +5435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5342,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5368,7 +5487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5394,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5420,7 +5539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5446,7 +5565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5472,7 +5591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5498,7 +5617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5524,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5550,7 +5669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5576,7 +5695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5602,7 +5721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5628,7 +5747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5654,7 +5773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5680,7 +5799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5706,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5732,7 +5851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5758,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A173">
         <v>24</v>
       </c>
@@ -5784,7 +5903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A174">
         <v>25</v>
       </c>
@@ -5810,7 +5929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A175">
         <v>24</v>
       </c>
@@ -5836,7 +5955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A176">
         <v>18</v>
       </c>
@@ -5862,7 +5981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A177">
         <v>29</v>
       </c>
@@ -5888,7 +6007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A178">
         <v>19</v>
       </c>
@@ -5914,7 +6033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A179">
         <v>23</v>
       </c>
@@ -5940,7 +6059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A180">
         <v>23</v>
       </c>
@@ -5966,7 +6085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A181">
         <v>22</v>
       </c>
@@ -5992,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6018,7 +6137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6044,7 +6163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6070,7 +6189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6096,7 +6215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6122,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6148,7 +6267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6174,7 +6293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6200,7 +6319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6226,7 +6345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6252,7 +6371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6278,7 +6397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6304,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6330,7 +6449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6356,7 +6475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6382,7 +6501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6408,7 +6527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6434,7 +6553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6460,7 +6579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6486,7 +6605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6512,7 +6631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6538,7 +6657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6564,7 +6683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6590,7 +6709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6616,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6642,7 +6761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6668,7 +6787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6694,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6720,7 +6839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6746,7 +6865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6772,7 +6891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A212">
         <v>19</v>
       </c>
@@ -6798,7 +6917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -6824,7 +6943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -6850,7 +6969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A215">
         <v>13</v>
       </c>
@@ -6876,7 +6995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A216">
         <v>13</v>
       </c>
@@ -6902,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A217">
         <v>13</v>
       </c>
@@ -6928,7 +7047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -6954,7 +7073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A219">
         <v>30</v>
       </c>
@@ -6980,7 +7099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7006,7 +7125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7032,7 +7151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7058,7 +7177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7084,7 +7203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7110,7 +7229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7136,7 +7255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7162,7 +7281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7188,7 +7307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7214,7 +7333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7240,7 +7359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7266,7 +7385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7292,7 +7411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7318,7 +7437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7344,7 +7463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7370,7 +7489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7396,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7422,7 +7541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7448,7 +7567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7474,7 +7593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7500,7 +7619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7526,7 +7645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7552,7 +7671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7578,7 +7697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7604,7 +7723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7630,7 +7749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7656,7 +7775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7682,7 +7801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7708,7 +7827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7734,7 +7853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7760,7 +7879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -7786,7 +7905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -7812,7 +7931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -7838,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -7864,7 +7983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -7890,7 +8009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -7916,7 +8035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -7942,7 +8061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -7968,7 +8087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -7994,7 +8113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8020,7 +8139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8046,7 +8165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8072,7 +8191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8098,7 +8217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8124,7 +8243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8150,7 +8269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8176,7 +8295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8202,7 +8321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8228,7 +8347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8254,7 +8373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8280,7 +8399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8306,7 +8425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8332,7 +8451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8358,7 +8477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8384,7 +8503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8410,7 +8529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8436,7 +8555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8462,7 +8581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8488,7 +8607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8514,7 +8633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8540,7 +8659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8566,7 +8685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8592,7 +8711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8618,7 +8737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8644,7 +8763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8670,7 +8789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8696,7 +8815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8722,7 +8841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8748,7 +8867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -8774,7 +8893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -8800,7 +8919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -8826,7 +8945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -8852,7 +8971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -8878,7 +8997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -8904,7 +9023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -8930,7 +9049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -8956,7 +9075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -8982,7 +9101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9008,7 +9127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9034,7 +9153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9060,7 +9179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9086,7 +9205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9112,7 +9231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9138,7 +9257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9164,7 +9283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9190,7 +9309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9216,7 +9335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9242,7 +9361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9268,7 +9387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9294,7 +9413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9320,7 +9439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9346,7 +9465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9372,7 +9491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9398,7 +9517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9424,7 +9543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9450,7 +9569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9476,7 +9595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9502,7 +9621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9528,7 +9647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9554,7 +9673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9580,7 +9699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9606,7 +9725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9632,7 +9751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9658,7 +9777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9684,7 +9803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9710,7 +9829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9736,7 +9855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9762,7 +9881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -9788,7 +9907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -9814,7 +9933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -9840,7 +9959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A330">
         <v>30</v>
       </c>
@@ -9866,7 +9985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -9892,7 +10011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -9915,7 +10034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -9941,7 +10060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -9967,7 +10086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -9993,7 +10112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10019,7 +10138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10045,7 +10164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10068,7 +10187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10094,7 +10213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10120,7 +10239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10146,7 +10265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10172,7 +10291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10198,7 +10317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10224,7 +10343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10250,7 +10369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10276,7 +10395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10302,7 +10421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10328,7 +10447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10354,7 +10473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10380,7 +10499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10406,7 +10525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10432,7 +10551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10458,7 +10577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10484,7 +10603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10510,7 +10629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10533,7 +10652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10559,7 +10678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10585,7 +10704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10611,7 +10730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10637,7 +10756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10663,7 +10782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10689,7 +10808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10715,7 +10834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10741,7 +10860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10767,7 +10886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -10793,7 +10912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -10819,7 +10938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -10845,7 +10964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A369">
         <v>28</v>
       </c>
@@ -10871,7 +10990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A370">
         <v>27</v>
       </c>
@@ -10897,7 +11016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A371">
         <v>34</v>
       </c>
@@ -10923,7 +11042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A372">
         <v>31</v>
       </c>
@@ -10949,7 +11068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A373">
         <v>29</v>
       </c>
@@ -10975,7 +11094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11001,7 +11120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11027,7 +11146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11050,7 +11169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11076,7 +11195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11102,7 +11221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11128,7 +11247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11154,7 +11273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11180,7 +11299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11206,7 +11325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11232,7 +11351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11258,7 +11377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11284,7 +11403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11310,7 +11429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11336,7 +11455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11362,7 +11481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11388,7 +11507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11414,7 +11533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11440,7 +11559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11466,7 +11585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11492,7 +11611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11518,7 +11637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11544,7 +11663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11570,7 +11689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11596,7 +11715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11622,7 +11741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A399">
         <v>31</v>
       </c>

--- a/3-descriptive-statistics/3-descriptive-statistics-solution.xlsx
+++ b/3-descriptive-statistics/3-descriptive-statistics-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\3-descriptive-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525FCBD-05EC-4BCD-91E4-AB5A44048463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F9183-30BF-4309-92F2-34501182B7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -47,18 +47,11 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
@@ -68,12 +61,9 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="1">
     <bk>
       <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -101,7 +91,13 @@
       <code>mpg_df = xl(%P2%, headers=True)</code>
     </pythonScript>
     <pythonScript>
+      <code>mpg_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
       <code>mpg_df.describe(percentiles=[.1, .5, .9])</code>
+    </pythonScript>
+    <pythonScript>
+      <code>mpg_df.describe(exclude='number')</code>
     </pythonScript>
     <pythonScript>
       <code>mpg_df['origin'].value_counts()</code>
@@ -728,7 +724,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
   <a r="12" c="9">
     <v t="s"/>
     <v t="s">mpg</v>
@@ -839,85 +835,11 @@
     <v>82</v>
     <v t="s">usa</v>
   </a>
-  <a r="9" c="8">
-    <v t="s"/>
-    <v t="s">mpg</v>
-    <v t="s">cylinders</v>
-    <v t="s">displacement</v>
-    <v t="s">horsepower</v>
-    <v t="s">weight</v>
-    <v t="s">acceleration</v>
-    <v t="s">model_year</v>
-    <v t="s">count</v>
-    <v>398</v>
-    <v>398</v>
-    <v>398</v>
-    <v>392</v>
-    <v>398</v>
-    <v>398</v>
-    <v>398</v>
-    <v t="s">mean</v>
-    <v>23.514572864321607</v>
-    <v>5.4547738693467336</v>
-    <v>193.42587939698493</v>
-    <v>104.46938775510205</v>
-    <v>2970.424623115578</v>
-    <v>15.568090452261307</v>
-    <v>76.010050251256288</v>
-    <v t="s">std</v>
-    <v>7.8159843125657824</v>
-    <v>1.7010042445332094</v>
-    <v>104.26983817119581</v>
-    <v>38.491159932828552</v>
-    <v>846.84177419732714</v>
-    <v>2.7576889298126757</v>
-    <v>3.6976266467326231</v>
-    <v t="s">min</v>
-    <v>9</v>
-    <v>3</v>
-    <v>68</v>
-    <v>46</v>
-    <v>1613</v>
-    <v>8</v>
-    <v>70</v>
-    <v t="s">10%</v>
-    <v>14</v>
-    <v>4</v>
-    <v>90</v>
-    <v>67</v>
-    <v>1988.5</v>
-    <v>12</v>
-    <v>71</v>
-    <v t="s">50%</v>
-    <v>23</v>
-    <v>4</v>
-    <v>148.5</v>
-    <v>93.5</v>
-    <v>2803.5</v>
-    <v>15.5</v>
-    <v>76</v>
-    <v t="s">90%</v>
-    <v>34.33</v>
-    <v>8</v>
-    <v>350</v>
-    <v>157.7000000000001</v>
-    <v>4275.2</v>
-    <v>19</v>
-    <v>81</v>
-    <v t="s">max</v>
-    <v>46.6</v>
-    <v>8</v>
-    <v>455</v>
-    <v>230</v>
-    <v>5140</v>
-    <v>24.8</v>
-    <v>82</v>
-  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -934,24 +856,6 @@
 1    15.0          8         350.0       165.0    3693          11.5   
 2    18.0          8         318.0  ...</v>
     <v>1</v>
-    <v>2</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>4</v>
-    <v>3</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">              mpg   cylinders  displacement  horsepower       weight  \
-count  398.000000  398.000000    398.000000  392.000000   398.000000   
-mean    23.514573    5.454774    193.425879  104.469388  2970.424623   
-std      7.815984    1.701004    104...</v>
-    <v>4</v>
     <v>2</v>
   </rv>
 </rvData>
@@ -979,7 +883,7 @@
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="5">
+  <spbData count="3">
     <spb s="0">
       <v>398</v>
       <v>8</v>
@@ -994,16 +898,6 @@
       <v>https://www.anaconda.com/excel</v>
       <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
       <v>Python provided by Anaconda</v>
-    </spb>
-    <spb s="0">
-      <v>8</v>
-      <v>7</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>3</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1363,22 +1257,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:Q399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.04296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.76953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.03515625" customWidth="1"/>
+    <col min="3" max="3" width="12.73828125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1434,7 +1328,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1460,7 +1354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1485,12 +1379,33 @@
       <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="e" cm="1" vm="2">
-        <f t="array" ref="J4">_xlfn._xlws.PY(1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J4" t="str" cm="1">
+        <f t="array" ref="J4:Q12">_xlfn._xlws.PY(1,0)</f>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="L4" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="M4" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="N4" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="O4" t="str">
+        <v>weight</v>
+      </c>
+      <c r="P4" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>model_year</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1515,8 +1430,32 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J5" t="str">
+        <v>count</v>
+      </c>
+      <c r="K5">
+        <v>398</v>
+      </c>
+      <c r="L5">
+        <v>398</v>
+      </c>
+      <c r="M5">
+        <v>398</v>
+      </c>
+      <c r="N5">
+        <v>392</v>
+      </c>
+      <c r="O5">
+        <v>398</v>
+      </c>
+      <c r="P5">
+        <v>398</v>
+      </c>
+      <c r="Q5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1541,8 +1480,32 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J6" t="str">
+        <v>mean</v>
+      </c>
+      <c r="K6">
+        <v>23.514572864321607</v>
+      </c>
+      <c r="L6">
+        <v>5.4547738693467336</v>
+      </c>
+      <c r="M6">
+        <v>193.42587939698493</v>
+      </c>
+      <c r="N6">
+        <v>104.46938775510205</v>
+      </c>
+      <c r="O6">
+        <v>2970.424623115578</v>
+      </c>
+      <c r="P6">
+        <v>15.568090452261307</v>
+      </c>
+      <c r="Q6">
+        <v>76.010050251256288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1567,8 +1530,32 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J7" t="str">
+        <v>std</v>
+      </c>
+      <c r="K7">
+        <v>7.8159843125657824</v>
+      </c>
+      <c r="L7">
+        <v>1.7010042445332094</v>
+      </c>
+      <c r="M7">
+        <v>104.26983817119581</v>
+      </c>
+      <c r="N7">
+        <v>38.491159932828552</v>
+      </c>
+      <c r="O7">
+        <v>846.84177419732714</v>
+      </c>
+      <c r="P7">
+        <v>2.7576889298126757</v>
+      </c>
+      <c r="Q7">
+        <v>3.6976266467326231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1593,8 +1580,32 @@
       <c r="H8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J8" t="str">
+        <v>min</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>1613</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1619,8 +1630,32 @@
       <c r="H9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J9" t="str">
+        <v>25%</v>
+      </c>
+      <c r="K9">
+        <v>17.5</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>104.25</v>
+      </c>
+      <c r="N9">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>2223.75</v>
+      </c>
+      <c r="P9">
+        <v>13.825000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1645,8 +1680,32 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J10" t="str">
+        <v>50%</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>148.5</v>
+      </c>
+      <c r="N10">
+        <v>93.5</v>
+      </c>
+      <c r="O10">
+        <v>2803.5</v>
+      </c>
+      <c r="P10">
+        <v>15.5</v>
+      </c>
+      <c r="Q10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1671,8 +1730,32 @@
       <c r="H11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J11" t="str">
+        <v>75%</v>
+      </c>
+      <c r="K11">
+        <v>29</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>262</v>
+      </c>
+      <c r="N11">
+        <v>126</v>
+      </c>
+      <c r="O11">
+        <v>3608</v>
+      </c>
+      <c r="P11">
+        <v>17.175000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1697,8 +1780,32 @@
       <c r="H12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J12" t="str">
+        <v>max</v>
+      </c>
+      <c r="K12">
+        <v>46.6</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>455</v>
+      </c>
+      <c r="N12">
+        <v>230</v>
+      </c>
+      <c r="O12">
+        <v>5140</v>
+      </c>
+      <c r="P12">
+        <v>24.8</v>
+      </c>
+      <c r="Q12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1724,7 +1831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1750,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1775,8 +1882,33 @@
       <c r="H15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J15" t="str" cm="1">
+        <f t="array" ref="J15:Q23">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="L15" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="M15" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="N15" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="O15" t="str">
+        <v>weight</v>
+      </c>
+      <c r="P15" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>model_year</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1801,8 +1933,32 @@
       <c r="H16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J16" t="str">
+        <v>count</v>
+      </c>
+      <c r="K16">
+        <v>398</v>
+      </c>
+      <c r="L16">
+        <v>398</v>
+      </c>
+      <c r="M16">
+        <v>398</v>
+      </c>
+      <c r="N16">
+        <v>392</v>
+      </c>
+      <c r="O16">
+        <v>398</v>
+      </c>
+      <c r="P16">
+        <v>398</v>
+      </c>
+      <c r="Q16">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1827,8 +1983,32 @@
       <c r="H17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J17" t="str">
+        <v>mean</v>
+      </c>
+      <c r="K17">
+        <v>23.514572864321607</v>
+      </c>
+      <c r="L17">
+        <v>5.4547738693467336</v>
+      </c>
+      <c r="M17">
+        <v>193.42587939698493</v>
+      </c>
+      <c r="N17">
+        <v>104.46938775510205</v>
+      </c>
+      <c r="O17">
+        <v>2970.424623115578</v>
+      </c>
+      <c r="P17">
+        <v>15.568090452261307</v>
+      </c>
+      <c r="Q17">
+        <v>76.010050251256288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1853,15 +2033,32 @@
       <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="J18" t="str" cm="1">
-        <f t="array" ref="J18:K21">_xlfn._xlws.PY(2,0)</f>
-        <v>origin</v>
-      </c>
-      <c r="K18" t="str">
-        <v>count</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J18" t="str">
+        <v>std</v>
+      </c>
+      <c r="K18">
+        <v>7.8159843125657824</v>
+      </c>
+      <c r="L18">
+        <v>1.7010042445332094</v>
+      </c>
+      <c r="M18">
+        <v>104.26983817119581</v>
+      </c>
+      <c r="N18">
+        <v>38.491159932828552</v>
+      </c>
+      <c r="O18">
+        <v>846.84177419732714</v>
+      </c>
+      <c r="P18">
+        <v>2.7576889298126757</v>
+      </c>
+      <c r="Q18">
+        <v>3.6976266467326231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1887,13 +2084,31 @@
         <v>8</v>
       </c>
       <c r="J19" t="str">
-        <v>usa</v>
+        <v>min</v>
       </c>
       <c r="K19">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>68</v>
+      </c>
+      <c r="N19">
+        <v>46</v>
+      </c>
+      <c r="O19">
+        <v>1613</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1919,13 +2134,31 @@
         <v>9</v>
       </c>
       <c r="J20" t="str">
-        <v>japan</v>
+        <v>10%</v>
       </c>
       <c r="K20">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.65">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>90</v>
+      </c>
+      <c r="N20">
+        <v>67</v>
+      </c>
+      <c r="O20">
+        <v>1988.5</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1951,13 +2184,31 @@
         <v>10</v>
       </c>
       <c r="J21" t="str">
-        <v>europe</v>
+        <v>50%</v>
       </c>
       <c r="K21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.65">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>148.5</v>
+      </c>
+      <c r="N21">
+        <v>93.5</v>
+      </c>
+      <c r="O21">
+        <v>2803.5</v>
+      </c>
+      <c r="P21">
+        <v>15.5</v>
+      </c>
+      <c r="Q21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1982,8 +2233,32 @@
       <c r="H22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J22" t="str">
+        <v>90%</v>
+      </c>
+      <c r="K22">
+        <v>34.33</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>350</v>
+      </c>
+      <c r="N22">
+        <v>157.7000000000001</v>
+      </c>
+      <c r="O22">
+        <v>4275.2</v>
+      </c>
+      <c r="P22">
+        <v>19</v>
+      </c>
+      <c r="Q22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2008,8 +2283,32 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J23" t="str">
+        <v>max</v>
+      </c>
+      <c r="K23">
+        <v>46.6</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>455</v>
+      </c>
+      <c r="N23">
+        <v>230</v>
+      </c>
+      <c r="O23">
+        <v>5140</v>
+      </c>
+      <c r="P23">
+        <v>24.8</v>
+      </c>
+      <c r="Q23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2035,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2061,7 +2360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2086,8 +2385,33 @@
       <c r="H26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J26" t="str" cm="1">
+        <f t="array" ref="J26:Q34">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="L26" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="M26" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="N26" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="O26" t="str">
+        <v>weight</v>
+      </c>
+      <c r="P26" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>model_year</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2112,8 +2436,32 @@
       <c r="H27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J27" t="str">
+        <v>count</v>
+      </c>
+      <c r="K27">
+        <v>398</v>
+      </c>
+      <c r="L27">
+        <v>398</v>
+      </c>
+      <c r="M27">
+        <v>398</v>
+      </c>
+      <c r="N27">
+        <v>392</v>
+      </c>
+      <c r="O27">
+        <v>398</v>
+      </c>
+      <c r="P27">
+        <v>398</v>
+      </c>
+      <c r="Q27">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2138,8 +2486,32 @@
       <c r="H28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J28" t="str">
+        <v>mean</v>
+      </c>
+      <c r="K28">
+        <v>23.514572864321607</v>
+      </c>
+      <c r="L28">
+        <v>5.4547738693467336</v>
+      </c>
+      <c r="M28">
+        <v>193.42587939698493</v>
+      </c>
+      <c r="N28">
+        <v>104.46938775510205</v>
+      </c>
+      <c r="O28">
+        <v>2970.424623115578</v>
+      </c>
+      <c r="P28">
+        <v>15.568090452261307</v>
+      </c>
+      <c r="Q28">
+        <v>76.010050251256288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2164,8 +2536,32 @@
       <c r="H29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J29" t="str">
+        <v>std</v>
+      </c>
+      <c r="K29">
+        <v>7.8159843125657824</v>
+      </c>
+      <c r="L29">
+        <v>1.7010042445332094</v>
+      </c>
+      <c r="M29">
+        <v>104.26983817119581</v>
+      </c>
+      <c r="N29">
+        <v>38.491159932828552</v>
+      </c>
+      <c r="O29">
+        <v>846.84177419732714</v>
+      </c>
+      <c r="P29">
+        <v>2.7576889298126757</v>
+      </c>
+      <c r="Q29">
+        <v>3.6976266467326231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2190,8 +2586,32 @@
       <c r="H30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J30" t="str">
+        <v>min</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>68</v>
+      </c>
+      <c r="N30">
+        <v>46</v>
+      </c>
+      <c r="O30">
+        <v>1613</v>
+      </c>
+      <c r="P30">
+        <v>8</v>
+      </c>
+      <c r="Q30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2216,8 +2636,32 @@
       <c r="H31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="J31" t="str">
+        <v>10%</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>90</v>
+      </c>
+      <c r="N31">
+        <v>67</v>
+      </c>
+      <c r="O31">
+        <v>1988.5</v>
+      </c>
+      <c r="P31">
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2242,8 +2686,32 @@
       <c r="H32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J32" t="str">
+        <v>50%</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>148.5</v>
+      </c>
+      <c r="N32">
+        <v>93.5</v>
+      </c>
+      <c r="O32">
+        <v>2803.5</v>
+      </c>
+      <c r="P32">
+        <v>15.5</v>
+      </c>
+      <c r="Q32">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2268,8 +2736,32 @@
       <c r="H33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J33" t="str">
+        <v>90%</v>
+      </c>
+      <c r="K33">
+        <v>34.33</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>350</v>
+      </c>
+      <c r="N33">
+        <v>157.7000000000001</v>
+      </c>
+      <c r="O33">
+        <v>4275.2</v>
+      </c>
+      <c r="P33">
+        <v>19</v>
+      </c>
+      <c r="Q33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2291,8 +2783,32 @@
       <c r="H34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J34" t="str">
+        <v>max</v>
+      </c>
+      <c r="K34">
+        <v>46.6</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>455</v>
+      </c>
+      <c r="N34">
+        <v>230</v>
+      </c>
+      <c r="O34">
+        <v>5140</v>
+      </c>
+      <c r="P34">
+        <v>24.8</v>
+      </c>
+      <c r="Q34">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2318,7 +2834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2343,8 +2859,15 @@
       <c r="H36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J36" t="str" cm="1">
+        <f t="array" ref="J36:K40">_xlfn._xlws.PY(3,0)</f>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v>origin</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2369,8 +2892,14 @@
       <c r="H37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J37" t="str">
+        <v>count</v>
+      </c>
+      <c r="K37">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2395,8 +2924,14 @@
       <c r="H38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J38" t="str">
+        <v>unique</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2421,8 +2956,14 @@
       <c r="H39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J39" t="str">
+        <v>top</v>
+      </c>
+      <c r="K39" t="str">
+        <v>usa</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2447,8 +2988,14 @@
       <c r="H40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J40" t="str">
+        <v>freq</v>
+      </c>
+      <c r="K40">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2474,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2499,8 +3046,15 @@
       <c r="H42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J42" t="str" cm="1">
+        <f t="array" ref="J42:K45">_xlfn._xlws.PY(4,0)</f>
+        <v>origin</v>
+      </c>
+      <c r="K42" t="str">
+        <v>count</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2525,8 +3079,14 @@
       <c r="H43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J43" t="str">
+        <v>usa</v>
+      </c>
+      <c r="K43">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2551,8 +3111,14 @@
       <c r="H44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J44" t="str">
+        <v>japan</v>
+      </c>
+      <c r="K44">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2577,8 +3143,14 @@
       <c r="H45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="J45" t="str">
+        <v>europe</v>
+      </c>
+      <c r="K45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2604,7 +3176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2630,7 +3202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2656,7 +3228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2682,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2708,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2734,7 +3306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2760,7 +3332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2786,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2812,7 +3384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2838,7 +3410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2864,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2890,7 +3462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2916,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2942,7 +3514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -2968,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -2994,7 +3566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3020,7 +3592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3046,7 +3618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3072,7 +3644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3098,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3124,7 +3696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3150,7 +3722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3176,7 +3748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3202,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3228,7 +3800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3254,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3280,7 +3852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3306,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3332,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3358,7 +3930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3384,7 +3956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3410,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3436,7 +4008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3462,7 +4034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3488,7 +4060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3514,7 +4086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3540,7 +4112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3566,7 +4138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3592,7 +4164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3618,7 +4190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3644,7 +4216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3670,7 +4242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3696,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3722,7 +4294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3748,7 +4320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3774,7 +4346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3800,7 +4372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3826,7 +4398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3852,7 +4424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3878,7 +4450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -3904,7 +4476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -3930,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -3956,7 +4528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -3982,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4008,7 +4580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4034,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4060,7 +4632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4086,7 +4658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4112,7 +4684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4138,7 +4710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4164,7 +4736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4190,7 +4762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4216,7 +4788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4242,7 +4814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4268,7 +4840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4294,7 +4866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4320,7 +4892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4346,7 +4918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4372,7 +4944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4398,7 +4970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4424,7 +4996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4450,7 +5022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4476,7 +5048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4502,7 +5074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4528,7 +5100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4554,7 +5126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4580,7 +5152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4606,7 +5178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4632,7 +5204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4658,7 +5230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4684,7 +5256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4710,7 +5282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4733,7 +5305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4759,7 +5331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4785,7 +5357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4811,7 +5383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4837,7 +5409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4863,7 +5435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4889,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -4915,7 +5487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -4941,7 +5513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -4967,7 +5539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -4993,7 +5565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5019,7 +5591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5045,7 +5617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5071,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5097,7 +5669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5123,7 +5695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5149,7 +5721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5175,7 +5747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5201,7 +5773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5227,7 +5799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5253,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5279,7 +5851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5305,7 +5877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5331,7 +5903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5357,7 +5929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5383,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5409,7 +5981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5435,7 +6007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5461,7 +6033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5487,7 +6059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5513,7 +6085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5539,7 +6111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5565,7 +6137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5591,7 +6163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5617,7 +6189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5643,7 +6215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5669,7 +6241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5695,7 +6267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5721,7 +6293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5747,7 +6319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5773,7 +6345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5799,7 +6371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5825,7 +6397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5851,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5877,7 +6449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -5903,7 +6475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -5929,7 +6501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -5955,7 +6527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -5981,7 +6553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6007,7 +6579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6033,7 +6605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6059,7 +6631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6085,7 +6657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6111,7 +6683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6137,7 +6709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6163,7 +6735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6189,7 +6761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6215,7 +6787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6241,7 +6813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6267,7 +6839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6293,7 +6865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6319,7 +6891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6345,7 +6917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6371,7 +6943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6397,7 +6969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6423,7 +6995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6449,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6475,7 +7047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6501,7 +7073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6527,7 +7099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6553,7 +7125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6579,7 +7151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6605,7 +7177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6631,7 +7203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6657,7 +7229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6683,7 +7255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6709,7 +7281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6735,7 +7307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6761,7 +7333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6787,7 +7359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6813,7 +7385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6839,7 +7411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6865,7 +7437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6891,7 +7463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -6917,7 +7489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -6943,7 +7515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -6969,7 +7541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -6995,7 +7567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7021,7 +7593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7047,7 +7619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7073,7 +7645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7099,7 +7671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7125,7 +7697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7151,7 +7723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7177,7 +7749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7203,7 +7775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7229,7 +7801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7255,7 +7827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7281,7 +7853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7307,7 +7879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7333,7 +7905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7359,7 +7931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7385,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7411,7 +7983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7437,7 +8009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7463,7 +8035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7489,7 +8061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7515,7 +8087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7541,7 +8113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7567,7 +8139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7593,7 +8165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7619,7 +8191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7645,7 +8217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7671,7 +8243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7697,7 +8269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7723,7 +8295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7749,7 +8321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7775,7 +8347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7801,7 +8373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7827,7 +8399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7853,7 +8425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7879,7 +8451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -7905,7 +8477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -7931,7 +8503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -7957,7 +8529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -7983,7 +8555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -8009,7 +8581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8035,7 +8607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8061,7 +8633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8087,7 +8659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8113,7 +8685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8139,7 +8711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8165,7 +8737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8191,7 +8763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8217,7 +8789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8243,7 +8815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8269,7 +8841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8295,7 +8867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8321,7 +8893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8347,7 +8919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8373,7 +8945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8399,7 +8971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8425,7 +8997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8451,7 +9023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8477,7 +9049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8503,7 +9075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8529,7 +9101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8555,7 +9127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8581,7 +9153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8607,7 +9179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8633,7 +9205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8659,7 +9231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8685,7 +9257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8711,7 +9283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8737,7 +9309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8763,7 +9335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8789,7 +9361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8815,7 +9387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8841,7 +9413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8867,7 +9439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -8893,7 +9465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -8919,7 +9491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -8945,7 +9517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -8971,7 +9543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -8997,7 +9569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9023,7 +9595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9049,7 +9621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9075,7 +9647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9101,7 +9673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9127,7 +9699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9153,7 +9725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9179,7 +9751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9205,7 +9777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9231,7 +9803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9257,7 +9829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9283,7 +9855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9309,7 +9881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9335,7 +9907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9361,7 +9933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9387,7 +9959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9413,7 +9985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9439,7 +10011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9465,7 +10037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9491,7 +10063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9517,7 +10089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9543,7 +10115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9569,7 +10141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9595,7 +10167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9621,7 +10193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9647,7 +10219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9673,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9699,7 +10271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9725,7 +10297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9751,7 +10323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9777,7 +10349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9803,7 +10375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9829,7 +10401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9855,7 +10427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9881,7 +10453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -9907,7 +10479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -9933,7 +10505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -9959,7 +10531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -9985,7 +10557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -10011,7 +10583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -10034,7 +10606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -10060,7 +10632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -10086,7 +10658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -10112,7 +10684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10138,7 +10710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10164,7 +10736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10187,7 +10759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10213,7 +10785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10239,7 +10811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10265,7 +10837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10291,7 +10863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10317,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10343,7 +10915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10369,7 +10941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10395,7 +10967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10421,7 +10993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10447,7 +11019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10473,7 +11045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10499,7 +11071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10525,7 +11097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10551,7 +11123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10577,7 +11149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10603,7 +11175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10629,7 +11201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10652,7 +11224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10678,7 +11250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10704,7 +11276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10730,7 +11302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10756,7 +11328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10782,7 +11354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10808,7 +11380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10834,7 +11406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10860,7 +11432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10886,7 +11458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -10912,7 +11484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -10938,7 +11510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -10964,7 +11536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -10990,7 +11562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -11016,7 +11588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -11042,7 +11614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -11068,7 +11640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -11094,7 +11666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11120,7 +11692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11146,7 +11718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11169,7 +11741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11195,7 +11767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11221,7 +11793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11247,7 +11819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11273,7 +11845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11299,7 +11871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11325,7 +11897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11351,7 +11923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11377,7 +11949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11403,7 +11975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11429,7 +12001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11455,7 +12027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11481,7 +12053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11507,7 +12079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11533,7 +12105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11559,7 +12131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11585,7 +12157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11611,7 +12183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11637,7 +12209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11663,7 +12235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11689,7 +12261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11715,7 +12287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11741,7 +12313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>

--- a/3-descriptive-statistics/3-descriptive-statistics-solution.xlsx
+++ b/3-descriptive-statistics/3-descriptive-statistics-solution.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\3-descriptive-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F9183-30BF-4309-92F2-34501182B7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA003845-AE33-4022-B387-F76B4CF49845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="3-descriptive-stats" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
